--- a/backend/src/excel_handler/files/CELU.xlsx
+++ b/backend/src/excel_handler/files/CELU.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>16-12-2022</t>
+          <t>23-12-2022</t>
         </is>
       </c>
     </row>
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>127178.81</v>
+        <v>129553.88</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>42392.94</v>
+        <v>32388.47</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>58441.29</v>
+        <v>58645.76</v>
       </c>
     </row>
     <row r="5">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>26194.12</v>
+        <v>26445.19</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,17 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>42543.4</v>
+        <v>40967.52</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Arpenta acciones</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>3495.41</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CELU.xlsx
+++ b/backend/src/excel_handler/files/CELU.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,68 +436,91 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>23-12-2022</t>
+          <t>30-12-2022</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>06-01-2023</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>129553.88</v>
+        <v>57375.48</v>
+      </c>
+      <c r="C2" t="n">
+        <v>57248.24</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Arpenta acciones</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>32388.47</v>
+        <v>3488.68</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3495.3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>58645.76</v>
+        <v>26937.05</v>
+      </c>
+      <c r="C4" t="n">
+        <v>27544.64</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>26445.19</v>
+        <v>41045.75</v>
+      </c>
+      <c r="C5" t="n">
+        <v>41469.66</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>40967.52</v>
+        <v>32211.74</v>
+      </c>
+      <c r="C6" t="n">
+        <v>32439.46</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Arpenta acciones</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3495.41</v>
+        <v>128846.96</v>
+      </c>
+      <c r="C7" t="n">
+        <v>129757.84</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CELU.xlsx
+++ b/backend/src/excel_handler/files/CELU.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,11 +436,6 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>30-12-2022</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
           <t>06-01-2023</t>
         </is>
       </c>
@@ -448,79 +443,71 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>57375.48</v>
-      </c>
-      <c r="C2" t="n">
-        <v>57248.24</v>
+        <v>135020.14</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Arpenta acciones</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3488.68</v>
-      </c>
-      <c r="C3" t="n">
-        <v>3495.3</v>
+        <v>27004.03</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>26937.05</v>
-      </c>
-      <c r="C4" t="n">
-        <v>27544.64</v>
+        <v>57248.24</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Alpha Mercosur</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>41045.75</v>
-      </c>
-      <c r="C5" t="n">
-        <v>41469.66</v>
+        <v>5262.3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Arpenta acciones</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32211.74</v>
-      </c>
-      <c r="C6" t="n">
-        <v>32439.46</v>
+        <v>3495.3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>128846.96</v>
-      </c>
-      <c r="C7" t="n">
-        <v>129757.84</v>
+        <v>27544.64</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Fima PB Acciones</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>41469.66</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CELU.xlsx
+++ b/backend/src/excel_handler/files/CELU.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,75 +439,99 @@
           <t>06-01-2023</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>135020.14</v>
+        <v>57248.24</v>
+      </c>
+      <c r="C2" t="n">
+        <v>58970.63</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Alpha Mercosur</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27004.03</v>
+        <v>5262.3</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5448.26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Arpenta acciones</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>57248.24</v>
+        <v>3495.3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3506.39</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mercosur</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5262.3</v>
-      </c>
+        <v>27544.64</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Arpenta acciones</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3495.3</v>
+        <v>41469.66</v>
+      </c>
+      <c r="C6" t="n">
+        <v>41245.14</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>27544.64</v>
+        <v>27004.03</v>
+      </c>
+      <c r="C7" t="n">
+        <v>27292.6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>41469.66</v>
+        <v>135020.14</v>
+      </c>
+      <c r="C8" t="n">
+        <v>109170.42</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CELU.xlsx
+++ b/backend/src/excel_handler/files/CELU.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
           <t>13-01-2023</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>20-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -457,6 +462,9 @@
       <c r="C2" t="n">
         <v>58970.63</v>
       </c>
+      <c r="D2" t="n">
+        <v>58214.53</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -470,6 +478,9 @@
       <c r="C3" t="n">
         <v>5448.26</v>
       </c>
+      <c r="D3" t="n">
+        <v>5243.97</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -483,6 +494,9 @@
       <c r="C4" t="n">
         <v>3506.39</v>
       </c>
+      <c r="D4" t="n">
+        <v>3507.38</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -494,6 +508,9 @@
         <v>27544.64</v>
       </c>
       <c r="C5" t="inlineStr"/>
+      <c r="D5" t="n">
+        <v>25222.24</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -507,6 +524,9 @@
       <c r="C6" t="n">
         <v>41245.14</v>
       </c>
+      <c r="D6" t="n">
+        <v>41362.59</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -520,6 +540,9 @@
       <c r="C7" t="n">
         <v>27292.6</v>
       </c>
+      <c r="D7" t="n">
+        <v>26710.14</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -532,6 +555,9 @@
       </c>
       <c r="C8" t="n">
         <v>109170.42</v>
+      </c>
+      <c r="D8" t="n">
+        <v>133550.71</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CELU.xlsx
+++ b/backend/src/excel_handler/files/CELU.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,11 @@
           <t>20-01-2023</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>27-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -465,6 +470,9 @@
       <c r="D2" t="n">
         <v>58214.53</v>
       </c>
+      <c r="E2" t="n">
+        <v>58223.89</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -481,6 +489,9 @@
       <c r="D3" t="n">
         <v>5243.97</v>
       </c>
+      <c r="E3" t="n">
+        <v>4607.07</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -496,6 +507,9 @@
       </c>
       <c r="D4" t="n">
         <v>3507.38</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3493.72</v>
       </c>
     </row>
     <row r="5">
@@ -511,6 +525,9 @@
       <c r="D5" t="n">
         <v>25222.24</v>
       </c>
+      <c r="E5" t="n">
+        <v>26915.16</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -527,6 +544,9 @@
       <c r="D6" t="n">
         <v>41362.59</v>
       </c>
+      <c r="E6" t="n">
+        <v>41855.57</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -543,6 +563,9 @@
       <c r="D7" t="n">
         <v>26710.14</v>
       </c>
+      <c r="E7" t="n">
+        <v>27019.08</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -558,6 +581,9 @@
       </c>
       <c r="D8" t="n">
         <v>133550.71</v>
+      </c>
+      <c r="E8" t="n">
+        <v>135095.41</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CELU.xlsx
+++ b/backend/src/excel_handler/files/CELU.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>27-01-2023</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>03-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -473,6 +478,9 @@
       <c r="E2" t="n">
         <v>58223.89</v>
       </c>
+      <c r="F2" t="n">
+        <v>58902.42</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -492,6 +500,9 @@
       <c r="E3" t="n">
         <v>4607.07</v>
       </c>
+      <c r="F3" t="n">
+        <v>4974.5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -510,6 +521,9 @@
       </c>
       <c r="E4" t="n">
         <v>3493.72</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3493.87</v>
       </c>
     </row>
     <row r="5">
@@ -528,6 +542,9 @@
       <c r="E5" t="n">
         <v>26915.16</v>
       </c>
+      <c r="F5" t="n">
+        <v>25469.39</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -547,6 +564,9 @@
       <c r="E6" t="n">
         <v>41855.57</v>
       </c>
+      <c r="F6" t="n">
+        <v>41086.89</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -566,6 +586,9 @@
       <c r="E7" t="n">
         <v>27019.08</v>
       </c>
+      <c r="F7" t="n">
+        <v>26785.41</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -584,6 +607,9 @@
       </c>
       <c r="E8" t="n">
         <v>135095.41</v>
+      </c>
+      <c r="F8" t="n">
+        <v>133927.07</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CELU.xlsx
+++ b/backend/src/excel_handler/files/CELU.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>03-02-2023</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>10-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -481,6 +486,9 @@
       <c r="F2" t="n">
         <v>58902.42</v>
       </c>
+      <c r="G2" t="n">
+        <v>59251.8</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -503,6 +511,9 @@
       <c r="F3" t="n">
         <v>4974.5</v>
       </c>
+      <c r="G3" t="n">
+        <v>4481.27</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -524,6 +535,9 @@
       </c>
       <c r="F4" t="n">
         <v>3493.87</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3495.88</v>
       </c>
     </row>
     <row r="5">
@@ -545,6 +559,9 @@
       <c r="F5" t="n">
         <v>25469.39</v>
       </c>
+      <c r="G5" t="n">
+        <v>25958.43</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -567,6 +584,9 @@
       <c r="F6" t="n">
         <v>41086.89</v>
       </c>
+      <c r="G6" t="n">
+        <v>41492.12</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -589,6 +609,9 @@
       <c r="F7" t="n">
         <v>26785.41</v>
       </c>
+      <c r="G7" t="n">
+        <v>26935.9</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -610,6 +633,9 @@
       </c>
       <c r="F8" t="n">
         <v>133927.07</v>
+      </c>
+      <c r="G8" t="n">
+        <v>134679.5</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CELU.xlsx
+++ b/backend/src/excel_handler/files/CELU.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>10-02-2023</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>17-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -489,6 +494,9 @@
       <c r="G2" t="n">
         <v>59251.8</v>
       </c>
+      <c r="H2" t="n">
+        <v>57282.74</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -514,6 +522,9 @@
       <c r="G3" t="n">
         <v>4481.27</v>
       </c>
+      <c r="H3" t="n">
+        <v>5354.31</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -538,6 +549,9 @@
       </c>
       <c r="G4" t="n">
         <v>3495.88</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3500.88</v>
       </c>
     </row>
     <row r="5">
@@ -562,6 +576,9 @@
       <c r="G5" t="n">
         <v>25958.43</v>
       </c>
+      <c r="H5" t="n">
+        <v>27109.14</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -587,6 +604,9 @@
       <c r="G6" t="n">
         <v>41492.12</v>
       </c>
+      <c r="H6" t="n">
+        <v>42003.93</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -612,6 +632,9 @@
       <c r="G7" t="n">
         <v>26935.9</v>
       </c>
+      <c r="H7" t="n">
+        <v>27050.2</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -636,6 +659,9 @@
       </c>
       <c r="G8" t="n">
         <v>134679.5</v>
+      </c>
+      <c r="H8" t="n">
+        <v>135251</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CELU.xlsx
+++ b/backend/src/excel_handler/files/CELU.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,11 @@
           <t>17-02-2023</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>24-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -497,6 +502,9 @@
       <c r="H2" t="n">
         <v>57282.74</v>
       </c>
+      <c r="I2" t="n">
+        <v>57658.19</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -525,6 +533,9 @@
       <c r="H3" t="n">
         <v>5354.31</v>
       </c>
+      <c r="I3" t="n">
+        <v>5505.9</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -552,6 +563,9 @@
       </c>
       <c r="H4" t="n">
         <v>3500.88</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3495.01</v>
       </c>
     </row>
     <row r="5">
@@ -579,6 +593,9 @@
       <c r="H5" t="n">
         <v>27109.14</v>
       </c>
+      <c r="I5" t="n">
+        <v>27289.89</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -607,6 +624,9 @@
       <c r="H6" t="n">
         <v>42003.93</v>
       </c>
+      <c r="I6" t="n">
+        <v>41420.44</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -635,6 +655,9 @@
       <c r="H7" t="n">
         <v>27050.2</v>
       </c>
+      <c r="I7" t="n">
+        <v>27073.89</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -662,6 +685,9 @@
       </c>
       <c r="H8" t="n">
         <v>135251</v>
+      </c>
+      <c r="I8" t="n">
+        <v>135369.43</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CELU.xlsx
+++ b/backend/src/excel_handler/files/CELU.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,11 @@
           <t>24-02-2023</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>03-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -505,6 +510,9 @@
       <c r="I2" t="n">
         <v>57658.19</v>
       </c>
+      <c r="J2" t="n">
+        <v>57147.92</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -536,6 +544,9 @@
       <c r="I3" t="n">
         <v>5505.9</v>
       </c>
+      <c r="J3" t="n">
+        <v>4471.02</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -567,6 +578,9 @@
       <c r="I4" t="n">
         <v>3495.01</v>
       </c>
+      <c r="J4" t="n">
+        <v>3494.8</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -596,6 +610,9 @@
       <c r="I5" t="n">
         <v>27289.89</v>
       </c>
+      <c r="J5" t="n">
+        <v>26908.17</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -627,6 +644,9 @@
       <c r="I6" t="n">
         <v>41420.44</v>
       </c>
+      <c r="J6" t="n">
+        <v>42106.67</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -658,6 +678,9 @@
       <c r="I7" t="n">
         <v>27073.89</v>
       </c>
+      <c r="J7" t="n">
+        <v>26825.72</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -688,6 +711,9 @@
       </c>
       <c r="I8" t="n">
         <v>135369.43</v>
+      </c>
+      <c r="J8" t="n">
+        <v>134128.58</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CELU.xlsx
+++ b/backend/src/excel_handler/files/CELU.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,11 @@
           <t>03-03-2023</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>10-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -513,6 +518,9 @@
       <c r="J2" t="n">
         <v>57147.92</v>
       </c>
+      <c r="K2" t="n">
+        <v>58342.55</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -547,6 +555,9 @@
       <c r="J3" t="n">
         <v>4471.02</v>
       </c>
+      <c r="K3" t="n">
+        <v>5433.03</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -581,6 +592,9 @@
       <c r="J4" t="n">
         <v>3494.8</v>
       </c>
+      <c r="K4" t="n">
+        <v>3505.24</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -613,6 +627,9 @@
       <c r="J5" t="n">
         <v>26908.17</v>
       </c>
+      <c r="K5" t="n">
+        <v>25243.5</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -647,6 +664,9 @@
       <c r="J6" t="n">
         <v>42106.67</v>
       </c>
+      <c r="K6" t="n">
+        <v>41817.47</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -681,6 +701,9 @@
       <c r="J7" t="n">
         <v>26825.72</v>
       </c>
+      <c r="K7" t="n">
+        <v>26868.36</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -714,6 +737,9 @@
       </c>
       <c r="J8" t="n">
         <v>134128.58</v>
+      </c>
+      <c r="K8" t="n">
+        <v>134341.79</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CELU.xlsx
+++ b/backend/src/excel_handler/files/CELU.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>10-03-2023</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>17-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -521,6 +526,9 @@
       <c r="K2" t="n">
         <v>58342.55</v>
       </c>
+      <c r="L2" t="n">
+        <v>57197.19</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -558,6 +566,9 @@
       <c r="K3" t="n">
         <v>5433.03</v>
       </c>
+      <c r="L3" t="n">
+        <v>5248.37</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -595,6 +606,9 @@
       <c r="K4" t="n">
         <v>3505.24</v>
       </c>
+      <c r="L4" t="n">
+        <v>3500.22</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -630,6 +644,9 @@
       <c r="K5" t="n">
         <v>25243.5</v>
       </c>
+      <c r="L5" t="n">
+        <v>26288.73</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -667,6 +684,9 @@
       <c r="K6" t="n">
         <v>41817.47</v>
       </c>
+      <c r="L6" t="n">
+        <v>41650.37</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -704,6 +724,9 @@
       <c r="K7" t="n">
         <v>26868.36</v>
       </c>
+      <c r="L7" t="n">
+        <v>26776.98</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -740,6 +763,9 @@
       </c>
       <c r="K8" t="n">
         <v>134341.79</v>
+      </c>
+      <c r="L8" t="n">
+        <v>133884.88</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CELU.xlsx
+++ b/backend/src/excel_handler/files/CELU.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,6 +489,11 @@
           <t>17-03-2023</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>23-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -529,6 +534,9 @@
       <c r="L2" t="n">
         <v>57197.19</v>
       </c>
+      <c r="M2" t="n">
+        <v>58975.94</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -569,6 +577,9 @@
       <c r="L3" t="n">
         <v>5248.37</v>
       </c>
+      <c r="M3" t="n">
+        <v>4861.48</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -609,6 +620,9 @@
       <c r="L4" t="n">
         <v>3500.22</v>
       </c>
+      <c r="M4" t="n">
+        <v>3503.01</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -647,6 +661,9 @@
       <c r="L5" t="n">
         <v>26288.73</v>
       </c>
+      <c r="M5" t="n">
+        <v>25260.82</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -687,6 +704,9 @@
       <c r="L6" t="n">
         <v>41650.37</v>
       </c>
+      <c r="M6" t="n">
+        <v>40978.55</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -727,6 +747,9 @@
       <c r="L7" t="n">
         <v>26776.98</v>
       </c>
+      <c r="M7" t="n">
+        <v>26715.96</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -766,6 +789,9 @@
       </c>
       <c r="L8" t="n">
         <v>133884.88</v>
+      </c>
+      <c r="M8" t="n">
+        <v>133579.8</v>
       </c>
     </row>
   </sheetData>
